--- a/application/src/test/resources/CCD_TestDefinition_V34_RDM-2314.xlsx
+++ b/application/src/test/resources/CCD_TestDefinition_V34_RDM-2314.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-14060" yWindow="-28340" windowWidth="51200" windowHeight="28340" tabRatio="500" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="292">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -917,6 +917,24 @@
   </si>
   <si>
     <t>Payment</t>
+  </si>
+  <si>
+    <t>PersonOrderSummary</t>
+  </si>
+  <si>
+    <t>Order Summary</t>
+  </si>
+  <si>
+    <t>OrderSummary</t>
+  </si>
+  <si>
+    <t>READOnlY</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/about_to_start</t>
+  </si>
+  <si>
+    <t>5,10,15</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1412,14 +1430,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1607,11 +1639,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="7">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3259,7 +3304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -6875,9 +6920,11 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7095,21 +7142,21 @@
       <c r="K9" s="97"/>
     </row>
     <row r="10" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="94">
-        <v>42736</v>
-      </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="96" t="s">
+      <c r="A10" s="138">
+        <v>42736</v>
+      </c>
+      <c r="B10" s="139"/>
+      <c r="C10" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="96" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="96" t="s">
-        <v>249</v>
-      </c>
-      <c r="F10" s="96" t="s">
-        <v>250</v>
+      <c r="D10" s="140" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" s="140" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" s="140" t="s">
+        <v>258</v>
       </c>
       <c r="G10" s="95"/>
       <c r="H10" s="95"/>
@@ -7129,10 +7176,10 @@
         <v>54</v>
       </c>
       <c r="E11" s="96" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F11" s="96" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G11" s="95"/>
       <c r="H11" s="95"/>
@@ -7152,10 +7199,10 @@
         <v>54</v>
       </c>
       <c r="E12" s="96" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F12" s="96" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G12" s="95"/>
       <c r="H12" s="95"/>
@@ -7172,13 +7219,13 @@
         <v>24</v>
       </c>
       <c r="D13" s="96" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E13" s="96" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F13" s="96" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G13" s="95"/>
       <c r="H13" s="95"/>
@@ -7192,10 +7239,10 @@
       </c>
       <c r="B14" s="95"/>
       <c r="C14" s="96" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D14" s="96" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E14" s="96" t="s">
         <v>249</v>
@@ -7218,7 +7265,7 @@
         <v>27</v>
       </c>
       <c r="D15" s="96" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E15" s="96" t="s">
         <v>249</v>
@@ -7241,7 +7288,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="96" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E16" s="96" t="s">
         <v>249</v>
@@ -7264,7 +7311,7 @@
         <v>27</v>
       </c>
       <c r="D17" s="96" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E17" s="96" t="s">
         <v>249</v>
@@ -7287,7 +7334,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="96" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E18" s="96" t="s">
         <v>249</v>
@@ -7310,7 +7357,7 @@
         <v>27</v>
       </c>
       <c r="D19" s="96" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E19" s="96" t="s">
         <v>249</v>
@@ -7333,7 +7380,7 @@
         <v>27</v>
       </c>
       <c r="D20" s="96" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E20" s="96" t="s">
         <v>249</v>
@@ -7356,7 +7403,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="96" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E21" s="96" t="s">
         <v>249</v>
@@ -7379,7 +7426,7 @@
         <v>27</v>
       </c>
       <c r="D22" s="96" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E22" s="96" t="s">
         <v>249</v>
@@ -7402,7 +7449,7 @@
         <v>27</v>
       </c>
       <c r="D23" s="96" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" s="96" t="s">
         <v>249</v>
@@ -7425,7 +7472,7 @@
         <v>27</v>
       </c>
       <c r="D24" s="96" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E24" s="96" t="s">
         <v>249</v>
@@ -7448,7 +7495,7 @@
         <v>27</v>
       </c>
       <c r="D25" s="96" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E25" s="96" t="s">
         <v>249</v>
@@ -7470,8 +7517,8 @@
       <c r="C26" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="98" t="s">
-        <v>96</v>
+      <c r="D26" s="96" t="s">
+        <v>93</v>
       </c>
       <c r="E26" s="96" t="s">
         <v>249</v>
@@ -7490,11 +7537,11 @@
         <v>42736</v>
       </c>
       <c r="B27" s="95"/>
-      <c r="C27" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="96" t="s">
-        <v>56</v>
+      <c r="C27" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="98" t="s">
+        <v>96</v>
       </c>
       <c r="E27" s="96" t="s">
         <v>249</v>
@@ -7516,8 +7563,8 @@
       <c r="C28" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="98" t="s">
-        <v>59</v>
+      <c r="D28" s="96" t="s">
+        <v>56</v>
       </c>
       <c r="E28" s="96" t="s">
         <v>249</v>
@@ -7532,17 +7579,27 @@
       <c r="K28" s="97"/>
     </row>
     <row r="29" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="81"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="26"/>
+      <c r="A29" s="94">
+        <v>42736</v>
+      </c>
+      <c r="B29" s="95"/>
+      <c r="C29" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="96" t="s">
+        <v>249</v>
+      </c>
+      <c r="F29" s="96" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="97"/>
     </row>
     <row r="30" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="81"/>
@@ -7769,7 +7826,7 @@
       <c r="A47" s="81"/>
       <c r="B47" s="17"/>
       <c r="C47" s="74"/>
-      <c r="D47" s="78"/>
+      <c r="D47" s="74"/>
       <c r="E47" s="74"/>
       <c r="F47" s="74"/>
       <c r="G47" s="17"/>
@@ -7781,8 +7838,8 @@
     <row r="48" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="81"/>
       <c r="B48" s="17"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="28"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="78"/>
       <c r="E48" s="74"/>
       <c r="F48" s="74"/>
       <c r="G48" s="17"/>
@@ -7795,7 +7852,7 @@
       <c r="A49" s="81"/>
       <c r="B49" s="17"/>
       <c r="C49" s="82"/>
-      <c r="D49" s="31"/>
+      <c r="D49" s="28"/>
       <c r="E49" s="74"/>
       <c r="F49" s="74"/>
       <c r="G49" s="17"/>
@@ -7808,7 +7865,7 @@
       <c r="A50" s="81"/>
       <c r="B50" s="17"/>
       <c r="C50" s="82"/>
-      <c r="D50" s="28"/>
+      <c r="D50" s="31"/>
       <c r="E50" s="74"/>
       <c r="F50" s="74"/>
       <c r="G50" s="17"/>
@@ -7818,17 +7875,30 @@
       <c r="K50" s="26"/>
     </row>
     <row r="51" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="83"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="37"/>
+      <c r="A51" s="81"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="26"/>
+    </row>
+    <row r="52" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="83"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
@@ -13121,10 +13191,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13652,27 +13722,27 @@
       <c r="W13" s="26"/>
     </row>
     <row r="14" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9">
-        <v>42736</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="3" t="s">
+      <c r="A14" s="133">
+        <v>42736</v>
+      </c>
+      <c r="B14" s="134"/>
+      <c r="C14" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="F14" s="120"/>
-      <c r="G14" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="3" t="s">
+      <c r="D14" s="136" t="s">
+        <v>286</v>
+      </c>
+      <c r="E14" s="135" t="s">
+        <v>287</v>
+      </c>
+      <c r="F14" s="137"/>
+      <c r="G14" s="135" t="s">
+        <v>288</v>
+      </c>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="135" t="s">
         <v>26</v>
       </c>
       <c r="L14" s="120"/>
@@ -13694,38 +13764,36 @@
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="F15" s="120"/>
       <c r="G15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="4"/>
+        <v>281</v>
+      </c>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
       <c r="K15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="L15" s="120"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="120"/>
+      <c r="P15" s="120"/>
+      <c r="Q15" s="120"/>
+      <c r="R15" s="120"/>
       <c r="S15" s="25"/>
       <c r="T15" s="17"/>
       <c r="U15" s="17"/>
       <c r="V15" s="17"/>
-      <c r="W15" s="26"/>
+      <c r="W15" s="132"/>
     </row>
     <row r="16" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
@@ -13736,10 +13804,10 @@
         <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="3" t="s">
@@ -13751,7 +13819,7 @@
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="3" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
@@ -13775,20 +13843,22 @@
         <v>27</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="I17" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="J17" s="4"/>
       <c r="K17" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
@@ -13812,14 +13882,14 @@
         <v>27</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -13849,20 +13919,20 @@
         <v>27</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -13886,14 +13956,14 @@
         <v>27</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -13923,20 +13993,20 @@
         <v>27</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -13960,20 +14030,20 @@
         <v>27</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="3" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -13997,20 +14067,20 @@
         <v>27</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="3" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="3" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -14034,22 +14104,20 @@
         <v>27</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>88</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
@@ -14073,22 +14141,22 @@
         <v>27</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="3" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -14112,22 +14180,22 @@
         <v>27</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="3" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -14151,22 +14219,22 @@
         <v>27</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="3" t="s">
         <v>94</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -14182,17 +14250,31 @@
       <c r="W27" s="26"/>
     </row>
     <row r="28" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="9"/>
+      <c r="A28" s="9">
+        <v>42736</v>
+      </c>
       <c r="B28" s="9"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="C28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="G28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
+      <c r="K28" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -14425,11 +14507,36 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="36"/>
-      <c r="U37" s="36"/>
-      <c r="V37" s="36"/>
-      <c r="W37" s="37"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="26"/>
+    </row>
+    <row r="38" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
@@ -16093,8 +16200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView showGridLines="0" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -16293,8 +16400,12 @@
       <c r="I4" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
+      <c r="J4" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>291</v>
+      </c>
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
       <c r="N4" s="41"/>
@@ -16776,10 +16887,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="I1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -17147,88 +17258,82 @@
       <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
-        <v>42736</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="133">
+        <v>42736</v>
+      </c>
+      <c r="B10" s="134"/>
+      <c r="C10" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="135" t="s">
         <v>170</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G10" s="4">
-        <v>2</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="E10" s="135" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" s="135" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="137">
         <v>1</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="H10" s="137"/>
+      <c r="I10" s="135" t="s">
+        <v>286</v>
+      </c>
+      <c r="J10" s="137">
         <v>1</v>
       </c>
-      <c r="K10" s="120" t="s">
-        <v>195</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3" t="s">
+      <c r="K10" s="137" t="s">
+        <v>289</v>
+      </c>
+      <c r="L10" s="137"/>
+      <c r="M10" s="137"/>
+      <c r="N10" s="135" t="s">
+        <v>172</v>
+      </c>
+      <c r="O10" s="137"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="120"/>
+    </row>
+    <row r="11" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="133">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="134"/>
+      <c r="C11" s="135" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="135" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="135" t="s">
+        <v>202</v>
+      </c>
+      <c r="F11" s="135" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="137">
+        <v>1</v>
+      </c>
+      <c r="H11" s="137"/>
+      <c r="I11" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="J11" s="137">
+        <v>1</v>
+      </c>
+      <c r="K11" s="137" t="s">
+        <v>289</v>
+      </c>
+      <c r="L11" s="137"/>
+      <c r="M11" s="137"/>
+      <c r="N11" s="135" t="s">
         <v>176</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-    </row>
-    <row r="11" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9">
-        <v>42736</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G11" s="4">
-        <v>2</v>
-      </c>
-      <c r="H11" s="4">
-        <v>2</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="4">
-        <v>2</v>
-      </c>
-      <c r="K11" s="120" t="s">
-        <v>267</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="O11" s="137"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="120"/>
     </row>
     <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
@@ -17236,32 +17341,34 @@
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>170</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G12" s="4">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4">
         <v>1</v>
       </c>
-      <c r="H12" s="4"/>
       <c r="I12" s="3" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="J12" s="4">
         <v>1</v>
       </c>
       <c r="K12" s="120" t="s">
-        <v>267</v>
+        <v>195</v>
       </c>
       <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
         <v>176</v>
       </c>
@@ -17270,39 +17377,83 @@
       <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
+      <c r="A13" s="9">
+        <v>42736</v>
+      </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="120"/>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="4">
+        <v>2</v>
+      </c>
+      <c r="K13" s="120" t="s">
+        <v>267</v>
+      </c>
       <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="M13" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
+      <c r="A14" s="9">
+        <v>42736</v>
+      </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="120"/>
+      <c r="I14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="120" t="s">
+        <v>267</v>
+      </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="N14" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -17348,7 +17499,7 @@
     <row r="17" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="8"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -17363,6 +17514,44 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>

--- a/application/src/test/resources/CCD_TestDefinition_V34_RDM-2314.xlsx
+++ b/application/src/test/resources/CCD_TestDefinition_V34_RDM-2314.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="-5640" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="292">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -6920,10 +6920,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6931,7 +6931,7 @@
     <col min="1" max="1" width="33" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="11" width="14.5" style="1" customWidth="1"/>
     <col min="12" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
@@ -7165,21 +7165,21 @@
       <c r="K10" s="97"/>
     </row>
     <row r="11" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="94">
-        <v>42736</v>
-      </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="96" t="s">
+      <c r="A11" s="138">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="139"/>
+      <c r="C11" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="96" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="96" t="s">
-        <v>249</v>
-      </c>
-      <c r="F11" s="96" t="s">
-        <v>250</v>
+      <c r="D11" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="E11" s="140" t="s">
+        <v>253</v>
+      </c>
+      <c r="F11" s="140" t="s">
+        <v>258</v>
       </c>
       <c r="G11" s="95"/>
       <c r="H11" s="95"/>
@@ -7199,10 +7199,10 @@
         <v>54</v>
       </c>
       <c r="E12" s="96" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F12" s="96" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G12" s="95"/>
       <c r="H12" s="95"/>
@@ -7222,10 +7222,10 @@
         <v>54</v>
       </c>
       <c r="E13" s="96" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F13" s="96" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G13" s="95"/>
       <c r="H13" s="95"/>
@@ -7242,13 +7242,13 @@
         <v>24</v>
       </c>
       <c r="D14" s="96" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E14" s="96" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F14" s="96" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G14" s="95"/>
       <c r="H14" s="95"/>
@@ -7262,10 +7262,10 @@
       </c>
       <c r="B15" s="95"/>
       <c r="C15" s="96" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D15" s="96" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E15" s="96" t="s">
         <v>249</v>
@@ -7288,7 +7288,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="96" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E16" s="96" t="s">
         <v>249</v>
@@ -7311,7 +7311,7 @@
         <v>27</v>
       </c>
       <c r="D17" s="96" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E17" s="96" t="s">
         <v>249</v>
@@ -7334,7 +7334,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="96" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E18" s="96" t="s">
         <v>249</v>
@@ -7357,7 +7357,7 @@
         <v>27</v>
       </c>
       <c r="D19" s="96" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E19" s="96" t="s">
         <v>249</v>
@@ -7380,7 +7380,7 @@
         <v>27</v>
       </c>
       <c r="D20" s="96" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E20" s="96" t="s">
         <v>249</v>
@@ -7403,7 +7403,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="96" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E21" s="96" t="s">
         <v>249</v>
@@ -7426,7 +7426,7 @@
         <v>27</v>
       </c>
       <c r="D22" s="96" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E22" s="96" t="s">
         <v>249</v>
@@ -7449,7 +7449,7 @@
         <v>27</v>
       </c>
       <c r="D23" s="96" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E23" s="96" t="s">
         <v>249</v>
@@ -7472,7 +7472,7 @@
         <v>27</v>
       </c>
       <c r="D24" s="96" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E24" s="96" t="s">
         <v>249</v>
@@ -7495,7 +7495,7 @@
         <v>27</v>
       </c>
       <c r="D25" s="96" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E25" s="96" t="s">
         <v>249</v>
@@ -7518,7 +7518,7 @@
         <v>27</v>
       </c>
       <c r="D26" s="96" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E26" s="96" t="s">
         <v>249</v>
@@ -7540,8 +7540,8 @@
       <c r="C27" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="98" t="s">
-        <v>96</v>
+      <c r="D27" s="96" t="s">
+        <v>93</v>
       </c>
       <c r="E27" s="96" t="s">
         <v>249</v>
@@ -7560,11 +7560,11 @@
         <v>42736</v>
       </c>
       <c r="B28" s="95"/>
-      <c r="C28" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="96" t="s">
-        <v>56</v>
+      <c r="C28" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="98" t="s">
+        <v>96</v>
       </c>
       <c r="E28" s="96" t="s">
         <v>249</v>
@@ -7586,8 +7586,8 @@
       <c r="C29" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="98" t="s">
-        <v>59</v>
+      <c r="D29" s="96" t="s">
+        <v>56</v>
       </c>
       <c r="E29" s="96" t="s">
         <v>249</v>
@@ -7602,17 +7602,27 @@
       <c r="K29" s="97"/>
     </row>
     <row r="30" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="81"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="26"/>
+      <c r="A30" s="94">
+        <v>42736</v>
+      </c>
+      <c r="B30" s="95"/>
+      <c r="C30" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="96" t="s">
+        <v>249</v>
+      </c>
+      <c r="F30" s="96" t="s">
+        <v>250</v>
+      </c>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="97"/>
     </row>
     <row r="31" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="81"/>
@@ -7839,7 +7849,7 @@
       <c r="A48" s="81"/>
       <c r="B48" s="17"/>
       <c r="C48" s="74"/>
-      <c r="D48" s="78"/>
+      <c r="D48" s="74"/>
       <c r="E48" s="74"/>
       <c r="F48" s="74"/>
       <c r="G48" s="17"/>
@@ -7851,8 +7861,8 @@
     <row r="49" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="81"/>
       <c r="B49" s="17"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="28"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="78"/>
       <c r="E49" s="74"/>
       <c r="F49" s="74"/>
       <c r="G49" s="17"/>
@@ -7865,7 +7875,7 @@
       <c r="A50" s="81"/>
       <c r="B50" s="17"/>
       <c r="C50" s="82"/>
-      <c r="D50" s="31"/>
+      <c r="D50" s="28"/>
       <c r="E50" s="74"/>
       <c r="F50" s="74"/>
       <c r="G50" s="17"/>
@@ -7878,7 +7888,7 @@
       <c r="A51" s="81"/>
       <c r="B51" s="17"/>
       <c r="C51" s="82"/>
-      <c r="D51" s="28"/>
+      <c r="D51" s="31"/>
       <c r="E51" s="74"/>
       <c r="F51" s="74"/>
       <c r="G51" s="17"/>
@@ -7888,17 +7898,30 @@
       <c r="K51" s="26"/>
     </row>
     <row r="52" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="83"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="37"/>
+      <c r="A52" s="81"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="26"/>
+    </row>
+    <row r="53" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="83"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
@@ -13193,7 +13216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -16889,7 +16912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>

--- a/application/src/test/resources/CCD_TestDefinition_V34_RDM-2314.xlsx
+++ b/application/src/test/resources/CCD_TestDefinition_V34_RDM-2314.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-5640" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -6922,7 +6922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -13216,7 +13216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -16913,7 +16913,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -17308,7 +17308,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="137" t="s">
-        <v>289</v>
+        <v>195</v>
       </c>
       <c r="L10" s="137"/>
       <c r="M10" s="137"/>
